--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hp-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hp-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Cd163</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>Cd163</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,371 +519,123 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>25.62318933333333</v>
+        <v>0.1498226666666667</v>
       </c>
       <c r="H2">
-        <v>76.869568</v>
+        <v>0.449468</v>
       </c>
       <c r="I2">
-        <v>0.9612793813842918</v>
+        <v>0.1392821207592237</v>
       </c>
       <c r="J2">
-        <v>0.9612793813842919</v>
+        <v>0.1392821207592237</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3446246666666666</v>
+        <v>0.7146560000000001</v>
       </c>
       <c r="N2">
-        <v>1.033874</v>
+        <v>2.143968</v>
       </c>
       <c r="O2">
-        <v>0.4966896930093215</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4966896930093215</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>8.830383082936887</v>
+        <v>0.1070716676693333</v>
       </c>
       <c r="R2">
-        <v>79.473447746432</v>
+        <v>0.963645009024</v>
       </c>
       <c r="S2">
-        <v>0.4774575608359544</v>
+        <v>0.1392821207592237</v>
       </c>
       <c r="T2">
-        <v>0.4774575608359545</v>
+        <v>0.1392821207592237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>25.62318933333333</v>
+        <v>0.925855</v>
       </c>
       <c r="H3">
-        <v>76.869568</v>
+        <v>2.777565</v>
       </c>
       <c r="I3">
-        <v>0.9612793813842918</v>
+        <v>0.8607178792407764</v>
       </c>
       <c r="J3">
-        <v>0.9612793813842919</v>
+        <v>0.8607178792407763</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3492183333333334</v>
+        <v>0.7146560000000001</v>
       </c>
       <c r="N3">
-        <v>1.047655</v>
+        <v>2.143968</v>
       </c>
       <c r="O3">
-        <v>0.5033103069906785</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.5033103069906786</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>8.94808747367111</v>
+        <v>0.66166783088</v>
       </c>
       <c r="R3">
-        <v>80.53278726304001</v>
+        <v>5.95501047792</v>
       </c>
       <c r="S3">
-        <v>0.4838218205483374</v>
+        <v>0.8607178792407764</v>
       </c>
       <c r="T3">
-        <v>0.4838218205483376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.9258549999999999</v>
-      </c>
-      <c r="H4">
-        <v>2.777565</v>
-      </c>
-      <c r="I4">
-        <v>0.03473436932746467</v>
-      </c>
-      <c r="J4">
-        <v>0.03473436932746467</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.3446246666666666</v>
-      </c>
-      <c r="N4">
-        <v>1.033874</v>
-      </c>
-      <c r="O4">
-        <v>0.4966896930093215</v>
-      </c>
-      <c r="P4">
-        <v>0.4966896930093215</v>
-      </c>
-      <c r="Q4">
-        <v>0.3190724707566666</v>
-      </c>
-      <c r="R4">
-        <v>2.87165223681</v>
-      </c>
-      <c r="S4">
-        <v>0.01725220323813082</v>
-      </c>
-      <c r="T4">
-        <v>0.01725220323813082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.9258549999999999</v>
-      </c>
-      <c r="H5">
-        <v>2.777565</v>
-      </c>
-      <c r="I5">
-        <v>0.03473436932746467</v>
-      </c>
-      <c r="J5">
-        <v>0.03473436932746467</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.3492183333333334</v>
-      </c>
-      <c r="N5">
-        <v>1.047655</v>
-      </c>
-      <c r="O5">
-        <v>0.5033103069906785</v>
-      </c>
-      <c r="P5">
-        <v>0.5033103069906786</v>
-      </c>
-      <c r="Q5">
-        <v>0.3233255400083333</v>
-      </c>
-      <c r="R5">
-        <v>2.909929860075</v>
-      </c>
-      <c r="S5">
-        <v>0.01748216608933385</v>
-      </c>
-      <c r="T5">
-        <v>0.01748216608933386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1062546666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.318764</v>
-      </c>
-      <c r="I6">
-        <v>0.003986249288243462</v>
-      </c>
-      <c r="J6">
-        <v>0.003986249288243462</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.3446246666666666</v>
-      </c>
-      <c r="N6">
-        <v>1.033874</v>
-      </c>
-      <c r="O6">
-        <v>0.4966896930093215</v>
-      </c>
-      <c r="P6">
-        <v>0.4966896930093215</v>
-      </c>
-      <c r="Q6">
-        <v>0.03661797908177777</v>
-      </c>
-      <c r="R6">
-        <v>0.329561811736</v>
-      </c>
-      <c r="S6">
-        <v>0.001979928935236271</v>
-      </c>
-      <c r="T6">
-        <v>0.001979928935236271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1062546666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.318764</v>
-      </c>
-      <c r="I7">
-        <v>0.003986249288243462</v>
-      </c>
-      <c r="J7">
-        <v>0.003986249288243462</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.3492183333333334</v>
-      </c>
-      <c r="N7">
-        <v>1.047655</v>
-      </c>
-      <c r="O7">
-        <v>0.5033103069906785</v>
-      </c>
-      <c r="P7">
-        <v>0.5033103069906786</v>
-      </c>
-      <c r="Q7">
-        <v>0.03710607760222222</v>
-      </c>
-      <c r="R7">
-        <v>0.33395469842</v>
-      </c>
-      <c r="S7">
-        <v>0.002006320353007191</v>
-      </c>
-      <c r="T7">
-        <v>0.002006320353007191</v>
+        <v>0.8607178792407763</v>
       </c>
     </row>
   </sheetData>
